--- a/result/training_invest_deep_all_result.xlsx
+++ b/result/training_invest_deep_all_result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>no</t>
   </si>
@@ -38,22 +38,574 @@
     <t>train_cnt</t>
   </si>
   <si>
-    <t>아이마켓코리아</t>
-  </si>
-  <si>
-    <t>아이에이치큐</t>
-  </si>
-  <si>
-    <t>에이블씨엔씨</t>
-  </si>
-  <si>
-    <t>엔씨소프트</t>
-  </si>
-  <si>
-    <t>엔케이</t>
-  </si>
-  <si>
-    <t>영보화학</t>
+    <t>시큐브</t>
+  </si>
+  <si>
+    <t>신라섬유</t>
+  </si>
+  <si>
+    <t>신한제3호스팩</t>
+  </si>
+  <si>
+    <t>신화콘텍</t>
+  </si>
+  <si>
+    <t>심텍</t>
+  </si>
+  <si>
+    <t>씨유메디칼</t>
+  </si>
+  <si>
+    <t>씨티씨바이오</t>
+  </si>
+  <si>
+    <t>아미노로직스</t>
+  </si>
+  <si>
+    <t>아바코</t>
+  </si>
+  <si>
+    <t>아바텍</t>
+  </si>
+  <si>
+    <t>아스타</t>
+  </si>
+  <si>
+    <t>아이에스이커머스</t>
+  </si>
+  <si>
+    <t>아트라스BX</t>
+  </si>
+  <si>
+    <t>애니젠</t>
+  </si>
+  <si>
+    <t>액토즈소프트</t>
+  </si>
+  <si>
+    <t>에스디생명공학</t>
+  </si>
+  <si>
+    <t>에스트래픽</t>
+  </si>
+  <si>
+    <t>에이스테크</t>
+  </si>
+  <si>
+    <t>에이씨티</t>
+  </si>
+  <si>
+    <t>에이아이비트</t>
+  </si>
+  <si>
+    <t>에이텍</t>
+  </si>
+  <si>
+    <t>에코프로</t>
+  </si>
+  <si>
+    <t>엑세스바이오</t>
+  </si>
+  <si>
+    <t>엑시콘</t>
+  </si>
+  <si>
+    <t>엔에이치스팩11호</t>
+  </si>
+  <si>
+    <t>엔지스테크널러지</t>
+  </si>
+  <si>
+    <t>엔텔스</t>
+  </si>
+  <si>
+    <t>엠게임</t>
+  </si>
+  <si>
+    <t>영우디에스피</t>
+  </si>
+  <si>
+    <t>오가닉티코스메틱</t>
+  </si>
+  <si>
+    <t>오리콤</t>
+  </si>
+  <si>
+    <t>오스코텍</t>
+  </si>
+  <si>
+    <t>오스템</t>
+  </si>
+  <si>
+    <t>와이아이케이</t>
+  </si>
+  <si>
+    <t>와이오엠</t>
+  </si>
+  <si>
+    <t>우리기술</t>
+  </si>
+  <si>
+    <t>우리기술투자</t>
+  </si>
+  <si>
+    <t>우리넷</t>
+  </si>
+  <si>
+    <t>우리로</t>
+  </si>
+  <si>
+    <t>우리이티아이</t>
+  </si>
+  <si>
+    <t>우정바이오</t>
+  </si>
+  <si>
+    <t>월덱스</t>
+  </si>
+  <si>
+    <t>유니온커뮤니티</t>
+  </si>
+  <si>
+    <t>유성티엔에스</t>
+  </si>
+  <si>
+    <t>유신</t>
+  </si>
+  <si>
+    <t>유진기업</t>
+  </si>
+  <si>
+    <t>유진로봇</t>
+  </si>
+  <si>
+    <t>유테크</t>
+  </si>
+  <si>
+    <t>이라이콤</t>
+  </si>
+  <si>
+    <t>이엘피</t>
+  </si>
+  <si>
+    <t>이지웰페어</t>
+  </si>
+  <si>
+    <t>이크레더블</t>
+  </si>
+  <si>
+    <t>인베니아</t>
+  </si>
+  <si>
+    <t>인지디스플레</t>
+  </si>
+  <si>
+    <t>인터파크</t>
+  </si>
+  <si>
+    <t>인트로메딕</t>
+  </si>
+  <si>
+    <t>인트론바이오</t>
+  </si>
+  <si>
+    <t>일진파워</t>
+  </si>
+  <si>
+    <t>장원테크</t>
+  </si>
+  <si>
+    <t>제너셈</t>
+  </si>
+  <si>
+    <t>제로투세븐</t>
+  </si>
+  <si>
+    <t>제이브이엠</t>
+  </si>
+  <si>
+    <t>제이스테판</t>
+  </si>
+  <si>
+    <t>제이씨케미칼</t>
+  </si>
+  <si>
+    <t>제이엠티</t>
+  </si>
+  <si>
+    <t>조이시티</t>
+  </si>
+  <si>
+    <t>중앙에너비스</t>
+  </si>
+  <si>
+    <t>지란지교시큐리티</t>
+  </si>
+  <si>
+    <t>지에스이</t>
+  </si>
+  <si>
+    <t>진성티이씨</t>
+  </si>
+  <si>
+    <t>청담러닝</t>
+  </si>
+  <si>
+    <t>카페24</t>
+  </si>
+  <si>
+    <t>케어랩스</t>
+  </si>
+  <si>
+    <t>케어젠</t>
+  </si>
+  <si>
+    <t>케이엠</t>
+  </si>
+  <si>
+    <t>케이프</t>
+  </si>
+  <si>
+    <t>켐트로닉스</t>
+  </si>
+  <si>
+    <t>코닉글로리</t>
+  </si>
+  <si>
+    <t>코디</t>
+  </si>
+  <si>
+    <t>코렌</t>
+  </si>
+  <si>
+    <t>코리아나</t>
+  </si>
+  <si>
+    <t>코오롱생명과학</t>
+  </si>
+  <si>
+    <t>키이스트</t>
+  </si>
+  <si>
+    <t>태광</t>
+  </si>
+  <si>
+    <t>텔루스</t>
+  </si>
+  <si>
+    <t>파인디앤씨</t>
+  </si>
+  <si>
+    <t>파인텍</t>
+  </si>
+  <si>
+    <t>파트론</t>
+  </si>
+  <si>
+    <t>파티게임즈</t>
+  </si>
+  <si>
+    <t>하이즈항공</t>
+  </si>
+  <si>
+    <t>한국가구</t>
+  </si>
+  <si>
+    <t>한국알콜</t>
+  </si>
+  <si>
+    <t>한국정밀기계</t>
+  </si>
+  <si>
+    <t>한빛소프트</t>
+  </si>
+  <si>
+    <t>한컴유니맥스</t>
+  </si>
+  <si>
+    <t>한컴지엠디</t>
+  </si>
+  <si>
+    <t>한탑</t>
+  </si>
+  <si>
+    <t>해성산업</t>
+  </si>
+  <si>
+    <t>핸디소프트</t>
+  </si>
+  <si>
+    <t>행남사</t>
+  </si>
+  <si>
+    <t>현대아이비티</t>
+  </si>
+  <si>
+    <t>현대통신</t>
+  </si>
+  <si>
+    <t>화일약품</t>
+  </si>
+  <si>
+    <t>휘닉스소재</t>
+  </si>
+  <si>
+    <t>휴마시스</t>
+  </si>
+  <si>
+    <t>휴메딕스</t>
+  </si>
+  <si>
+    <t>휴온스</t>
+  </si>
+  <si>
+    <t>흥국에프엔비</t>
+  </si>
+  <si>
+    <t>KC산업</t>
+  </si>
+  <si>
+    <t>나무기술</t>
+  </si>
+  <si>
+    <t>대동고려삼</t>
+  </si>
+  <si>
+    <t>메디쎄이</t>
+  </si>
+  <si>
+    <t>명진홀딩스</t>
+  </si>
+  <si>
+    <t>볼빅</t>
+  </si>
+  <si>
+    <t>비엔디생활건강</t>
+  </si>
+  <si>
+    <t>스템랩</t>
+  </si>
+  <si>
+    <t>스페이스솔루션</t>
+  </si>
+  <si>
+    <t>씨티네트웍스</t>
+  </si>
+  <si>
+    <t>안지오랩</t>
+  </si>
+  <si>
+    <t>에이치엔에스하이텍</t>
+  </si>
+  <si>
+    <t>엔에스컴퍼니</t>
+  </si>
+  <si>
+    <t>이비테크</t>
+  </si>
+  <si>
+    <t>인터코스</t>
+  </si>
+  <si>
+    <t>지노믹트리</t>
+  </si>
+  <si>
+    <t>카이노스메드</t>
+  </si>
+  <si>
+    <t>크로넥스</t>
+  </si>
+  <si>
+    <t>피엔아이컴퍼니</t>
+  </si>
+  <si>
+    <t>한중엔시에스</t>
+  </si>
+  <si>
+    <t>BYC</t>
+  </si>
+  <si>
+    <t>DRB동일</t>
+  </si>
+  <si>
+    <t>KTcs</t>
+  </si>
+  <si>
+    <t>STX엔진</t>
+  </si>
+  <si>
+    <t>강남제비스코</t>
+  </si>
+  <si>
+    <t>경동나비엔</t>
+  </si>
+  <si>
+    <t>광명전기</t>
+  </si>
+  <si>
+    <t>광전자</t>
+  </si>
+  <si>
+    <t>광주신세계</t>
+  </si>
+  <si>
+    <t>그린케미칼</t>
+  </si>
+  <si>
+    <t>금호전기</t>
+  </si>
+  <si>
+    <t>노루홀딩스</t>
+  </si>
+  <si>
+    <t>대림산업</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>대성홀딩스</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>대우부품</t>
+  </si>
+  <si>
+    <t>대창단조</t>
+  </si>
+  <si>
+    <t>대한제당</t>
+  </si>
+  <si>
+    <t>도화엔지니어링</t>
+  </si>
+  <si>
+    <t>동성화학</t>
+  </si>
+  <si>
+    <t>동아에스티</t>
+  </si>
+  <si>
+    <t>동양네트웍스</t>
+  </si>
+  <si>
+    <t>동양물산기업</t>
+  </si>
+  <si>
+    <t>동원</t>
+  </si>
+  <si>
+    <t>동일산업</t>
+  </si>
+  <si>
+    <t>락앤락</t>
+  </si>
+  <si>
+    <t>롯데칠성음료</t>
+  </si>
+  <si>
+    <t>메디플란트</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
+    <t>미래에셋대우</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>사조산업</t>
+  </si>
+  <si>
+    <t>삼부토건</t>
+  </si>
+  <si>
+    <t>상신브레이크</t>
+  </si>
+  <si>
+    <t>서연이화</t>
+  </si>
+  <si>
+    <t>서울도시가스</t>
+  </si>
+  <si>
+    <t>성신양회</t>
+  </si>
+  <si>
+    <t>성안</t>
+  </si>
+  <si>
+    <t>신대양제지</t>
+  </si>
+  <si>
+    <t>신일산업</t>
+  </si>
+  <si>
+    <t>신풍제지</t>
+  </si>
+  <si>
+    <t>신흥</t>
+  </si>
+  <si>
+    <t>에넥스</t>
+  </si>
+  <si>
+    <t>에스제이엠</t>
+  </si>
+  <si>
+    <t>에스제이엠홀딩스</t>
+  </si>
+  <si>
+    <t>에이프로젠제약</t>
+  </si>
+  <si>
+    <t>영풍제지</t>
+  </si>
+  <si>
+    <t>영흥철강</t>
+  </si>
+  <si>
+    <t>용평리조트</t>
+  </si>
+  <si>
+    <t>우리은행</t>
+  </si>
+  <si>
+    <t>우리종금</t>
+  </si>
+  <si>
+    <t>웅진씽크빅</t>
+  </si>
+  <si>
+    <t>유엔젤</t>
+  </si>
+  <si>
+    <t>율촌화학</t>
+  </si>
+  <si>
+    <t>이노션</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>이화산업</t>
+  </si>
+  <si>
+    <t>인스코비</t>
+  </si>
+  <si>
+    <t>인팩</t>
+  </si>
+  <si>
+    <t>일성건설</t>
+  </si>
+  <si>
+    <t>일성신약</t>
   </si>
 </sst>
 </file>
@@ -402,7 +954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,140 +987,4372 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="n">
-        <v>325</v>
+        <v>1801</v>
       </c>
       <c r="B2" t="n">
-        <v>122900</v>
+        <v>131090</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01238075457513332</v>
+        <v>0.1430511474609375</v>
       </c>
       <c r="E2" t="n">
-        <v>9522643.676999999</v>
+        <v>10494429.83975</v>
       </c>
       <c r="F2" t="n">
-        <v>9522643.676999999</v>
+        <v>10560569.545</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="n">
-        <v>326</v>
+        <v>1802</v>
       </c>
       <c r="B3" t="n">
-        <v>3560</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005959965754300356</v>
+        <v>0.005379429087042809</v>
       </c>
       <c r="E3" t="n">
-        <v>9629967.613500001</v>
+        <v>9930757.834000001</v>
       </c>
       <c r="F3" t="n">
-        <v>9770104.002999999</v>
+        <v>9930757.834000001</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="n">
-        <v>327</v>
+        <v>1803</v>
       </c>
       <c r="B4" t="n">
-        <v>78520</v>
+        <v>257730</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01259249355643988</v>
+        <v>0.01912021078169346</v>
       </c>
       <c r="E4" t="n">
-        <v>10194301.6</v>
+        <v>10098118.56625</v>
       </c>
       <c r="F4" t="n">
-        <v>10775055.19</v>
+        <v>10249075.54</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="n">
-        <v>328</v>
+        <v>1804</v>
       </c>
       <c r="B5" t="n">
-        <v>36570</v>
+        <v>187270</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03191659599542618</v>
+        <v>0.02034320496022701</v>
       </c>
       <c r="E5" t="n">
-        <v>10000000</v>
+        <v>10483759.16725</v>
       </c>
       <c r="F5" t="n">
-        <v>11393320.5</v>
+        <v>10674974.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="n">
-        <v>329</v>
+        <v>1805</v>
       </c>
       <c r="B6" t="n">
-        <v>85310</v>
+        <v>222800</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007849272340536118</v>
+        <v>0.02356389164924622</v>
       </c>
       <c r="E6" t="n">
-        <v>10254542.7025</v>
+        <v>10827280.53500001</v>
       </c>
       <c r="F6" t="n">
-        <v>10254542.7025</v>
+        <v>12030740.7575</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="n">
-        <v>330</v>
+        <v>1806</v>
       </c>
       <c r="B7" t="n">
-        <v>14440</v>
+        <v>115480</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01506869960576296</v>
+        <v>0.006005140487104654</v>
       </c>
       <c r="E7" t="n">
+        <v>11304846.957</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10992763.765</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60590</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01501312293112278</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10213170.5975</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11236796.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
+        <v>1808</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74430</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.004556599538773298</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10228256.56</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10228256.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="n">
+        <v>1809</v>
+      </c>
+      <c r="B10" t="n">
+        <v>83930</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01193166896700859</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10040603.341</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9953373.9135</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B11" t="n">
+        <v>149950</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01372496783733368</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10307819.8145</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10108488.9265</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B12" t="n">
+        <v>246720</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02040579356253147</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10372836.075</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10385996.515</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B13" t="n">
+        <v>69920</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01477447524666786</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10642083.5695</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11192716.657</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23890</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00735127879306674</v>
+      </c>
+      <c r="E14" t="n">
         <v>10000000</v>
       </c>
-      <c r="F7" t="n">
-        <v>10170875.9245</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F14" t="n">
+        <v>11353183.615</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B15" t="n">
+        <v>196300</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0222795307636261</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12111047.5675</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12264841.74</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B16" t="n">
+        <v>52790</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01621066220104694</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10214037.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11037435.35</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B17" t="n">
+        <v>217480</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0339343436062336</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11387315.21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11286557.405</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B18" t="n">
+        <v>234300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04613235965371132</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10698135.5025</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10366581.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="n">
+        <v>1818</v>
+      </c>
+      <c r="B19" t="n">
+        <v>88800</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.009532740339636803</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9975678.84175</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10027715.59</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B20" t="n">
+        <v>138360</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03564898669719696</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9355264.215</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9326964.171999998</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.006258504465222359</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9941684.812749999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10033674.08</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02746744640171528</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10439756.4425</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B23" t="n">
+        <v>86520</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02578402683138847</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12097554.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B24" t="n">
+        <v>950130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01125202048569918</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10638498.237</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10970472.0845</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B25" t="n">
+        <v>92870</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02315708436071873</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10005336.2635</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9967006.204</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="n">
+        <v>1825</v>
+      </c>
+      <c r="B26" t="n">
+        <v>256840</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05523060262203217</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9991434.277249999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="n">
+        <v>1826</v>
+      </c>
+      <c r="B27" t="n">
+        <v>208860</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.04480026289820671</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10038320.4375</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10493347.36</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B28" t="n">
+        <v>69410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01305426005274057</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9737513.835000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9926706.622499999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="n">
+        <v>1828</v>
+      </c>
+      <c r="B29" t="n">
+        <v>58630</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.006500464864075184</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9701734.345999997</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9725597.85275</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="n">
+        <v>1829</v>
+      </c>
+      <c r="B30" t="n">
+        <v>143540</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.005970073863863945</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8529909.548</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8529909.548</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B31" t="n">
+        <v>900300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0213420782238245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12744769.5665</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12293930.054</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10470</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.009491628035902977</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10642368.107</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10519656.94</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B33" t="n">
+        <v>39200</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02372331544756889</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10283838.53</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12462199.5475</v>
+      </c>
+      <c r="G33" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31510</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.008475149050354958</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9800937.99</v>
+      </c>
+      <c r="G34" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B35" t="n">
+        <v>232140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.02778829075396061</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9080092.602499999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9207812.239999998</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B36" t="n">
+        <v>66430</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.02880258485674858</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13946983.8625</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32820</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.003807911416515708</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9932535.800750004</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10075342.41</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B38" t="n">
+        <v>41190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.009536426514387131</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10140977.532</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9513934.975</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B39" t="n">
+        <v>115440</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0262017697095871</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9341356.998</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="n">
+        <v>1839</v>
+      </c>
+      <c r="B40" t="n">
+        <v>46970</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01240195520222187</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9734745.638</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9844450.164999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B41" t="n">
+        <v>82850</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.00293279392644763</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10892079.44</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10892079.44</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B42" t="n">
+        <v>215380</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.05852217599749565</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9147539.158750005</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9544717.50375</v>
+      </c>
+      <c r="G42" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B43" t="n">
+        <v>101160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01496593561023474</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9781988.999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9537994.243000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B44" t="n">
+        <v>203450</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01946670934557915</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10351296.5725</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9582419.725</v>
+      </c>
+      <c r="G44" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24800</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.002512991428375244</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9980491.7695</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9980491.7695</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B46" t="n">
+        <v>54930</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01849992386996746</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10161751.4925</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12537381.52</v>
+      </c>
+      <c r="G46" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="n">
+        <v>1846</v>
+      </c>
+      <c r="B47" t="n">
+        <v>23410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.003490433329716325</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9934602.718499999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10694016.895</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B48" t="n">
+        <v>56080</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.008493470028042793</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10404668.7425</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9853547.806</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="n">
+        <v>1848</v>
+      </c>
+      <c r="B49" t="n">
+        <v>178780</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02344470657408237</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11910146.632</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11910146.632</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41520</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0105358362197876</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8759392.091500001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8661686.848000001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B51" t="n">
+        <v>63760</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01708295568823814</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10590312.4775</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10657864.9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90850</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02350564859807491</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9396396.7585</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10169045.254</v>
+      </c>
+      <c r="G52" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="n">
+        <v>1852</v>
+      </c>
+      <c r="B53" t="n">
+        <v>92130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.006441656034439802</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9705072.699999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B54" t="n">
+        <v>79950</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.00421868497505784</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9511700.9725</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9401196.189999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B55" t="n">
+        <v>37330</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.001531861373223364</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9755571.415000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9755571.415000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B56" t="n">
+        <v>108790</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01422521006315947</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10261629.712</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10261629.712</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="n">
+        <v>1856</v>
+      </c>
+      <c r="B57" t="n">
+        <v>150840</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.07039210200309753</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9764360.854999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9764360.854999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B58" t="n">
+        <v>48530</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01979119516909122</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10081479.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12513294.875</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B59" t="n">
+        <v>94820</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.02146564796566963</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10173117.951</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9999417.892000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B60" t="n">
+        <v>174880</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.06525009870529175</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10374384.6975</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B61" t="n">
+        <v>217190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0309412032365799</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10277959.336</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10277959.336</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B62" t="n">
+        <v>159580</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.03574894741177559</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10540308.367</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10540308.367</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="n">
+        <v>1862</v>
+      </c>
+      <c r="B63" t="n">
+        <v>54950</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.04824542999267578</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9967071.775000002</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9967071.775000002</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B64" t="n">
+        <v>96690</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.008885192684829235</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9608423.291100001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B65" t="n">
+        <v>137950</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.02049076370894909</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10656795.17625</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10885221.772</v>
+      </c>
+      <c r="G65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B66" t="n">
+        <v>94970</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.02964030578732491</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9633869.13075</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9553409.938000001</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B67" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01828170008957386</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9487548.15</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10388627.6075</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B68" t="n">
+        <v>440</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.004028358496725559</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9529120.75</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14288377.75</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B69" t="n">
+        <v>208350</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.06846757978200912</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10120160.539</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9828565.756250001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B70" t="n">
+        <v>53050</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.00508676003664732</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10146074.266</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B71" t="n">
+        <v>36890</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.01544040255248547</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9568033.209000003</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9160727.118000001</v>
+      </c>
+      <c r="G71" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B72" t="n">
+        <v>96240</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01400884799659252</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13169892.25</v>
+      </c>
+      <c r="G72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B73" t="n">
+        <v>42000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.04404808208346367</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10289066.16</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10307922.955</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B74" t="n">
+        <v>263700</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.01720497384667397</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10896468.635</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10114632.6475</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B75" t="n">
+        <v>214370</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.02698605693876743</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10449970.875</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10401365.47</v>
+      </c>
+      <c r="G75" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B76" t="n">
+        <v>83550</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.02490513399243355</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9385850.309999999</v>
+      </c>
+      <c r="G76" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B77" t="n">
+        <v>64820</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.003949812613427639</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9727069.459250001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9727069.459250001</v>
+      </c>
+      <c r="G77" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B78" t="n">
+        <v>89010</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.009927970357239246</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9237380.727499999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9526477.196</v>
+      </c>
+      <c r="G78" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B79" t="n">
+        <v>94860</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.006316203624010086</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10482851.456</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10482851.456</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B80" t="n">
+        <v>80530</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01246640179306269</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9967006.105</v>
+      </c>
+      <c r="G80" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B81" t="n">
+        <v>78650</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01456068735569715</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10145637.632</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10145637.632</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B82" t="n">
+        <v>27050</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.02472119778394699</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10224662.3075</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10548276.435</v>
+      </c>
+      <c r="G82" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B83" t="n">
+        <v>102940</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.01873239316046238</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10144424.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10902101.4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B84" t="n">
+        <v>54780</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.003114082617685199</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9692799.16275</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9309523.125</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.002876322949305177</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10491650.225</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10838266.7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B86" t="n">
+        <v>196450</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.02696344256401062</v>
+      </c>
+      <c r="E86" t="n">
+        <v>7489533.4744</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7489533.4744</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B87" t="n">
+        <v>49120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01190724037587643</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9229331</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9229331</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B88" t="n">
+        <v>131760</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01200710982084274</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9793951.197750004</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9783031.264</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B89" t="n">
+        <v>91700</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.009763649664819241</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9848448.1645</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9926809.120000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B90" t="n">
+        <v>194510</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.005528926383703947</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9967013.859999999</v>
+      </c>
+      <c r="G90" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B91" t="n">
+        <v>221840</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.008812635205686092</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10141551.125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11539835.045</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4590</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.01123712118715048</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10420758.12</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10558883.8125</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17890</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.00455030333250761</v>
+      </c>
+      <c r="E93" t="n">
+        <v>9804512.059</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9804512.059</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B94" t="n">
+        <v>101680</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.005423748400062323</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9967003.003</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9967003.003</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B95" t="n">
+        <v>47080</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.006205362733453512</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9788563.715500001</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9788563.715500001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B96" t="n">
+        <v>215090</v>
+      </c>
+      <c r="C96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0789354220032692</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10469786.254</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10619421.688</v>
+      </c>
+      <c r="G96" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B97" t="n">
+        <v>77280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.005982686299830675</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9967000.066</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9967000.066</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2680</v>
+      </c>
+      <c r="C98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.003043169155716896</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9054051.76</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9054051.76</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34810</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.006947675719857216</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10319240.16</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9635946.445</v>
+      </c>
+      <c r="G99" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B100" t="n">
+        <v>220180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01049479655921459</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10137100.139</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11318493.547</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8800</v>
+      </c>
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.01731009408831596</v>
+      </c>
+      <c r="E101" t="n">
+        <v>8335834.981000001</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9760598.707</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B102" t="n">
+        <v>48410</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.02753428556025028</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19674774.7075</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B103" t="n">
+        <v>39010</v>
+      </c>
+      <c r="C103" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.02964119985699654</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10284151.1275</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B104" t="n">
+        <v>61250</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.01162260212004185</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9941540.446</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10798295.16</v>
+      </c>
+      <c r="G104" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B105" t="n">
+        <v>50090</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0109926788136363</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11834407.6073</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11834407.6073</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B106" t="n">
+        <v>205470</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.03023818135261536</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9611832.07425</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9839205.15</v>
+      </c>
+      <c r="G106" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B107" t="n">
+        <v>200670</v>
+      </c>
+      <c r="C107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.01218931563198566</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9997079.509999996</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9967047.024999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B108" t="n">
+        <v>243070</v>
+      </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.05861717090010643</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10102400.79</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10333632.775</v>
+      </c>
+      <c r="G108" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B109" t="n">
+        <v>189980</v>
+      </c>
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.006947058718651533</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9818330.578</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9818330.578</v>
+      </c>
+      <c r="G109" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B110" t="n">
+        <v>112190</v>
+      </c>
+      <c r="C110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.04620584473013878</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13072836.0665</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11253717.343</v>
+      </c>
+      <c r="G110" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B111" t="n">
+        <v>167380</v>
+      </c>
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.04316781461238861</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9994412.734999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9967000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B112" t="n">
+        <v>178600</v>
+      </c>
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.05455351993441582</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10743489.787</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10063776.706</v>
+      </c>
+      <c r="G112" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B113" t="n">
+        <v>200580</v>
+      </c>
+      <c r="C113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.00928898248821497</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9191753.055</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9191753.055</v>
+      </c>
+      <c r="G113" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B114" t="n">
+        <v>267060</v>
+      </c>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.01460335683077574</v>
+      </c>
+      <c r="E114" t="n">
+        <v>10064493.3245</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10160997.1105</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B115" t="n">
+        <v>206950</v>
+      </c>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.02015002444386482</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9911866.4155</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10920759.406</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B116" t="n">
+        <v>215050</v>
+      </c>
+      <c r="C116" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.03053571283817291</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7857178.286999997</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9786481.288999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B117" t="n">
+        <v>258540</v>
+      </c>
+      <c r="C117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.02967098169028759</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9967000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11055871.795</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B118" t="n">
+        <v>245030</v>
+      </c>
+      <c r="C118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.03184391558170319</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9452912.282500001</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9273771.446249999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B119" t="n">
+        <v>189540</v>
+      </c>
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.03261835500597954</v>
+      </c>
+      <c r="E119" t="n">
+        <v>14396850.71255</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9634751.003299998</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B120" t="n">
+        <v>251280</v>
+      </c>
+      <c r="C120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.03541179373860359</v>
+      </c>
+      <c r="E120" t="n">
+        <v>10338909.7075</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11918396.9175</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B121" t="n">
+        <v>44990</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.01350355800241232</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10510685.29</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10510685.29</v>
+      </c>
+      <c r="G121" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B122" t="n">
+        <v>224760</v>
+      </c>
+      <c r="C122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.04303143173456192</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11324749.3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B123" t="n">
+        <v>208850</v>
+      </c>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.03136131167411804</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11127836.63525</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9551321.552499998</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B124" t="n">
+        <v>240340</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.01529462169855833</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9968752.589000003</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9468787.57</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B125" t="n">
+        <v>228760</v>
+      </c>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.05915706977248192</v>
+      </c>
+      <c r="E125" t="n">
+        <v>10778061.5675</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7077434.204999998</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B126" t="n">
+        <v>220250</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.03191818669438362</v>
+      </c>
+      <c r="E126" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12517625.7275</v>
+      </c>
+      <c r="G126" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B127" t="n">
+        <v>215570</v>
+      </c>
+      <c r="C127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0620412677526474</v>
+      </c>
+      <c r="E127" t="n">
+        <v>10515324.652</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6650983.754999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B128" t="n">
+        <v>242350</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.07711112499237061</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8939682.9485</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8934423.424000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B129" t="n">
+        <v>107640</v>
+      </c>
+      <c r="C129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.04952617362141609</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7481134.362000002</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6864583.757</v>
+      </c>
+      <c r="G129" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.01547120418399572</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10383703.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10383703.1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4840</v>
+      </c>
+      <c r="C131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.002211072249338031</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9680436.3835</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9680436.3835</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B132" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C132" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.01159557327628136</v>
+      </c>
+      <c r="E132" t="n">
+        <v>10247984.19775</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10718876.7525</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B133" t="n">
+        <v>77970</v>
+      </c>
+      <c r="C133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.006685951258987188</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8147017.351000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8147017.351000001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B134" t="n">
+        <v>860</v>
+      </c>
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.01099674496799707</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10061208.595</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10408466.395</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9450</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.02085978910326958</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9567324.834999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9517278.039999999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B136" t="n">
+        <v>17040</v>
+      </c>
+      <c r="C136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.003066150937229395</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9826603.5855</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10029490.94</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B137" t="n">
+        <v>17900</v>
+      </c>
+      <c r="C137" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.00590791879221797</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9894692.739499997</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9690676.479999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B138" t="n">
+        <v>37710</v>
+      </c>
+      <c r="C138" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.01328342035412788</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10127451.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10061365.55</v>
+      </c>
+      <c r="G138" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B139" t="n">
+        <v>83420</v>
+      </c>
+      <c r="C139" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.003206199267879128</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10440507.875</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.004736499860882759</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10242731.713</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10242731.713</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B141" t="n">
+        <v>320</v>
+      </c>
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0143595989793539</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10042487.335</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9823672.439999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B142" t="n">
+        <v>210</v>
+      </c>
+      <c r="C142" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.00897230114787817</v>
+      </c>
+      <c r="E142" t="n">
+        <v>10056490.375</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10415623.75</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C143" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.01775097288191319</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10177934.5725</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10059745.99</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B144" t="n">
+        <v>16710</v>
+      </c>
+      <c r="C144" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.002435402711853385</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10132203.13</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10132203.13</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3540</v>
+      </c>
+      <c r="C145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.006687958724796772</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10156127.545</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9885670.24</v>
+      </c>
+      <c r="G145" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C146" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.001351807964965701</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9360343.297</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C147" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0167570672929287</v>
+      </c>
+      <c r="E147" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10269863.3125</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C148" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.00744536193087697</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9604957.0075</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9556058.145</v>
+      </c>
+      <c r="G148" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0159179549664259</v>
+      </c>
+      <c r="E149" t="n">
+        <v>10251350.2485</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10782210.527</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5190</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.01395467016845942</v>
+      </c>
+      <c r="E150" t="n">
+        <v>10020944.785</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9852023.252499999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B151" t="n">
+        <v>170900</v>
+      </c>
+      <c r="C151" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.02869024313986301</v>
+      </c>
+      <c r="E151" t="n">
+        <v>10065025.995</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10500883.745</v>
+      </c>
+      <c r="G151" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B152" t="n">
+        <v>30790</v>
+      </c>
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.007338389288634062</v>
+      </c>
+      <c r="E152" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11771220.864</v>
+      </c>
+      <c r="G152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C153" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.02952486835420132</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9855418.695000002</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10290779.52</v>
+      </c>
+      <c r="G153" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3580</v>
+      </c>
+      <c r="C154" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.02468422241508961</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9826777.194999998</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9826777.194999998</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4890</v>
+      </c>
+      <c r="C155" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0111218448728323</v>
+      </c>
+      <c r="E155" t="n">
+        <v>10385121</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10175097.35</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B156" t="n">
+        <v>115390</v>
+      </c>
+      <c r="C156" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.01407736446708441</v>
+      </c>
+      <c r="E156" t="n">
+        <v>10305545.175</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9595116.184999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C157" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.01826844364404678</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10023645.3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15540</v>
+      </c>
+      <c r="C158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.02369747497141361</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9161876.737000002</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9066039.999500001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B159" t="n">
+        <v>138040</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.02061012759804726</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9730854.317500001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9723868.615000002</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6800</v>
+      </c>
+      <c r="C160" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.007917703129351139</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10034559.0795</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10256117.2965</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C161" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.02041342668235302</v>
+      </c>
+      <c r="E161" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10026877</v>
+      </c>
+      <c r="G161" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.01903535053133965</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9934091.359999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9934091.359999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.01276109274476767</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9800331.432</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9800331.432</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B164" t="n">
+        <v>41650</v>
+      </c>
+      <c r="C164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.01215922180563211</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9623964.606000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9273437.0865</v>
+      </c>
+      <c r="G164" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B165" t="n">
+        <v>200880</v>
+      </c>
+      <c r="C165" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.01003176253288984</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9709424.355</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9709424.355</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B166" t="n">
+        <v>17390</v>
+      </c>
+      <c r="C166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0153666390106082</v>
+      </c>
+      <c r="E166" t="n">
+        <v>10013369.595</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9944544.120000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4980</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.01668168418109417</v>
+      </c>
+      <c r="E167" t="n">
+        <v>10202421.325</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11001760.825</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11300</v>
+      </c>
+      <c r="C168" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.003863591235131025</v>
+      </c>
+      <c r="E168" t="n">
+        <v>10578548.4488</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10578548.4488</v>
+      </c>
+      <c r="G168" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B169" t="n">
+        <v>16590</v>
+      </c>
+      <c r="C169" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.01171912159770727</v>
+      </c>
+      <c r="E169" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>10431910.99</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.003651444567367435</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9673850.576000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>9673850.576000001</v>
+      </c>
+      <c r="G170" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2870</v>
+      </c>
+      <c r="C171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.02299608290195465</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9120130.867500002</v>
+      </c>
+      <c r="F171" t="n">
+        <v>9120130.867500002</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4080</v>
+      </c>
+      <c r="C172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.008095068857073784</v>
+      </c>
+      <c r="E172" t="n">
+        <v>10559073.04</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10162395.8</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11090</v>
+      </c>
+      <c r="C173" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.005266500636935234</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10671474.5385</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10671474.5385</v>
+      </c>
+      <c r="G173" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B174" t="n">
+        <v>123700</v>
+      </c>
+      <c r="C174" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.007517461199313402</v>
+      </c>
+      <c r="E174" t="n">
+        <v>10407221.66425</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10485240.6595</v>
+      </c>
+      <c r="G174" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B175" t="n">
+        <v>25530</v>
+      </c>
+      <c r="C175" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.01670178584754467</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9991077.4955</v>
+      </c>
+      <c r="F175" t="n">
+        <v>9705326.875</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3060</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.01810789667069912</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9814246.303000001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>9734011.364499999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6740</v>
+      </c>
+      <c r="C177" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.02926438488066196</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11382781.16625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>11063980.544</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.003869695123285055</v>
+      </c>
+      <c r="E178" t="n">
+        <v>10842032.48675</v>
+      </c>
+      <c r="F178" t="n">
+        <v>10842032.48675</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B179" t="n">
+        <v>70960</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.03097997233271599</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9992697.415999997</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10153631.44</v>
+      </c>
+      <c r="G179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B180" t="n">
+        <v>30</v>
+      </c>
+      <c r="C180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.02515516988933086</v>
+      </c>
+      <c r="E180" t="n">
+        <v>10122722.3375</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9844812.92</v>
+      </c>
+      <c r="G180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B181" t="n">
+        <v>10050</v>
+      </c>
+      <c r="C181" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.005246180575340986</v>
+      </c>
+      <c r="E181" t="n">
+        <v>10590806.8549</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10590806.8549</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B182" t="n">
+        <v>95720</v>
+      </c>
+      <c r="C182" t="s">
+        <v>187</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.007545834872871637</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10292508.47125</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7601376.781750001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B183" t="n">
+        <v>72130</v>
+      </c>
+      <c r="C183" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.004040760919451714</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12027336.40325</v>
+      </c>
+      <c r="F183" t="n">
+        <v>11731464.5365</v>
+      </c>
+      <c r="G183" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8730</v>
+      </c>
+      <c r="C184" t="s">
+        <v>189</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.01300841942429543</v>
+      </c>
+      <c r="E184" t="n">
+        <v>10323196.375</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10238451.165</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B185" t="n">
+        <v>214320</v>
+      </c>
+      <c r="C185" t="s">
+        <v>190</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.03539374470710754</v>
+      </c>
+      <c r="E185" t="n">
+        <v>10056470.27</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10290977.875</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B186" t="n">
+        <v>139480</v>
+      </c>
+      <c r="C186" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.03044799156486988</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9204827.975000003</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9076854.200000001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B187" t="n">
+        <v>760</v>
+      </c>
+      <c r="C187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.02086163125932217</v>
+      </c>
+      <c r="E187" t="n">
+        <v>10547901.45</v>
+      </c>
+      <c r="F187" t="n">
+        <v>11648056.795</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6490</v>
+      </c>
+      <c r="C188" t="s">
+        <v>193</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0171655360609293</v>
+      </c>
+      <c r="E188" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10020297.6375</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23810</v>
+      </c>
+      <c r="C189" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.00780769856646657</v>
+      </c>
+      <c r="E189" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10034050.375</v>
+      </c>
+      <c r="G189" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B190" t="n">
+        <v>13360</v>
+      </c>
+      <c r="C190" t="s">
+        <v>195</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.06156371533870697</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9959152.258999998</v>
+      </c>
+      <c r="F190" t="n">
+        <v>9938599.7765</v>
+      </c>
+      <c r="G190" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3120</v>
+      </c>
+      <c r="C191" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.01853474415838718</v>
+      </c>
+      <c r="E191" t="n">
+        <v>10116527.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9822148.075000001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
